--- a/biology/Zoologie/Drongo_de_Mayotte/Drongo_de_Mayotte.xlsx
+++ b/biology/Zoologie/Drongo_de_Mayotte/Drongo_de_Mayotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus waldenii
 Le Drongo de Mayotte (Dicrurus waldenii) est une espèce d'oiseau de la famille des Dicruridae. Il est endémique de Mayotte, département d'outre-mer située dans l'archipel des Comores.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est restreinte exclusivement aux îles de Mayotte.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est cantonné aux lisières des forêts sempervirentes et des bosquets et plantations, au-dessus de la courbe de niveau des 200 m.
 </t>
@@ -576,11 +592,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Menaces et protection
-Comme pour beaucoup d'espèces, son habitat est en déclin, principalement en raison de l'extension des cultures et de la pratique du brûlis.
+          <t>Menaces et protection</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour beaucoup d'espèces, son habitat est en déclin, principalement en raison de l'extension des cultures et de la pratique du brûlis.
 On estime la totalité de la population mondiale de cette espèce à 100 à 150 couples entre août 2000 et septembre 2003.
-Philatélie
-Cet oiseau n'a jusqu'à présent été représenté que sur un seul timbre :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Drongo_de_Mayotte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drongo_de_Mayotte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le Drongo de Mayotte et l'Homme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cet oiseau n'a jusqu'à présent été représenté que sur un seul timbre :
 Mayotte, 2002, 0,46 €</t>
         </is>
       </c>
